--- a/upload/giro-leitos.xlsx
+++ b/upload/giro-leitos.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\x17954399\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m10428324\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19140" windowHeight="6720"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Export" sheetId="1" r:id="rId1"/>
@@ -407,8 +407,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E711"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A704" workbookViewId="0">
-      <selection activeCell="A713" sqref="A713:XFD713"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A712" sqref="A712:XFD713"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12409,10 +12409,10 @@
         <v>7</v>
       </c>
       <c r="D706">
-        <v>4.8602060707323869</v>
+        <v>4.8688387635756056</v>
       </c>
       <c r="E706" s="3">
-        <v>0.11722912966252218</v>
+        <v>0.11702127659574464</v>
       </c>
     </row>
     <row r="707" spans="1:5">
